--- a/final report/Spreadsheet to Make Graph.xlsx
+++ b/final report/Spreadsheet to Make Graph.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MLR Model" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -209,7 +209,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -246,10 +246,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -289,13 +289,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -310,11 +310,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45574784"/>
-        <c:axId val="45682048"/>
+        <c:axId val="86736256"/>
+        <c:axId val="86738432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45574784"/>
+        <c:axId val="86736256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -353,7 +353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45682048"/>
+        <c:crossAx val="86738432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -361,7 +361,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45682048"/>
+        <c:axId val="86738432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -391,7 +391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45574784"/>
+        <c:crossAx val="86736256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -501,10 +501,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,7 +547,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -587,7 +587,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -630,10 +630,10 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -648,11 +648,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="48829952"/>
-        <c:axId val="48831872"/>
+        <c:axId val="89330432"/>
+        <c:axId val="89332352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48829952"/>
+        <c:axId val="89330432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,7 +691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48831872"/>
+        <c:crossAx val="89332352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -699,7 +699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48831872"/>
+        <c:axId val="89332352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -729,7 +729,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48829952"/>
+        <c:crossAx val="89330432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -767,12 +767,12 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>238127</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -801,15 +801,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>219077</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>219078</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1122,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>17</v>
@@ -1192,10 +1192,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1210,15 +1210,15 @@
       </c>
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:F6" si="0">SUM(D3:D5)</f>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,13 +1274,14 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <f>SUM(C3:E3)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1294,10 +1295,11 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <f t="shared" ref="F4:F6" si="0">SUM(C4:E4)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1308,13 +1310,14 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>42</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1327,15 +1330,15 @@
       </c>
       <c r="D6">
         <f>SUM(D3:D5)</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="D6:F6" si="0">SUM(E3:E5)</f>
-        <v>9</v>
+        <f t="shared" ref="E6:F6" si="1">SUM(E3:E5)</f>
+        <v>23</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
